--- a/results/significance/5 DM test.xlsx
+++ b/results/significance/5 DM test.xlsx
@@ -1,83 +1,166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/significance/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_D852989059C6566BAD2200B3DAFF3ACDBB014CD2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2F320B6-15DD-A240-89C2-8DBAC57AD7D0}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22540" windowHeight="22020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="17">
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>p.value</t>
-  </si>
-  <si>
-    <t>nochange&lt;ses</t>
-  </si>
-  <si>
-    <t>APSP</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>Brent</t>
-  </si>
-  <si>
-    <t>Dubai</t>
-  </si>
-  <si>
-    <t>NatGas</t>
-  </si>
-  <si>
-    <t>WTI</t>
-  </si>
-  <si>
-    <t>nochange&lt;arima</t>
-  </si>
-  <si>
-    <t>nochange&lt;rf</t>
-  </si>
-  <si>
-    <t>arima&lt;ses</t>
-  </si>
-  <si>
-    <t>arima&lt;rf</t>
-  </si>
-  <si>
-    <t>ses&lt;rf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">commodity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">statistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nochange&lt;ses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.60557834844036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">greater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.7941831721259</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.13143371817631</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NatGas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.58900393233576*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.83289312817621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nochange&lt;arima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.40033574411671***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82057043009419***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.49001631022284***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.34911835489973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.92664810555373***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nochange&lt;rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.64146979548996**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07333003943314***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3415282131279**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34995448420698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.3076308557095**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arima&lt;ses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.79934697109506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.36214070585464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.10312531933753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.40488987794158*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-3.0969112910549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arima&lt;rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.40195101425917**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.77866051689454***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.02540204276165**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.35173357809907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.12232896654915**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ses&lt;rf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.78995436339681***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.24566330765824***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.5133733380303**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.34306841204204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.38694512992417**</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -110,18 +193,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -403,17 +477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,518 +501,518 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2">
-        <v>-3.6055783484403601</v>
+      <c r="C2" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
         <v>0.997935304131504</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>-3.7941831721259001</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>0.99851345646280498</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.998513456462805</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>-4.1314337181763099</v>
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>0.99916596876359898</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.999165968763599</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1.5890039323357601</v>
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>7.0183397672906295E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0701833976729063</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>-2.83289312817621</v>
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>0.99185618097218897</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.991856180972189</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <v>3.4003357441167101</v>
+      <c r="C7" t="s">
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>2.9627960117630499E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00296279601176305</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>2.8205704300941901</v>
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <v>8.3253359897112102E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.00832533598971121</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>3.4900163102228401</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>2.52920936587696E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00252920936587696</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>-1.3491183548997301</v>
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10">
-        <v>0.89779287272369701</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.897792872723697</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>2.9266481055537299</v>
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11">
-        <v>6.8863691524727903E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.00688636915247279</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>2.64146979548996</v>
+      <c r="C12" t="s">
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>1.14664752090614E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0114664752090614</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00529836500709903</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0195334256471658</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>3.0733300394331402</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13">
-        <v>5.2983650070990299E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14">
-        <v>2.3415282131279</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14">
-        <v>1.95334256471658E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>1.3499544842069799</v>
+      <c r="C15" t="s">
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>0.102077080121979</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>2.3076308557095002</v>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
       </c>
       <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16">
-        <v>2.0735645636786901E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0207356456367869</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-      <c r="C17">
-        <v>-3.7993469710950598</v>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0.99852669365759705</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.998526693657597</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>-3.3621407058546402</v>
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>0.99683009199536399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.996830091995364</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19">
-        <v>-4.1031253193375301</v>
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19">
-        <v>0.99912495828895198</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.999124958288952</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>1.4048898779415799</v>
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>9.3829544375109805E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0938295443751098</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>-3.0969112910549002</v>
+        <v>15</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <v>0.99492000964015503</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.994920009640155</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
-      <c r="C22">
-        <v>2.4019510142591698</v>
+      <c r="C22" t="s">
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22">
-        <v>1.7555567733021599E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0175555677330216</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0089734272912948</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0338921839390877</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.101800825996489</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>2.77866051689454</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23">
-        <v>8.9734272912947999E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24">
-        <v>2.0254020427616499</v>
-      </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24">
-        <v>3.3892183939087703E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>1.35173357809907</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25">
-        <v>0.101800825996489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26">
-        <v>2.12232896654915</v>
+      <c r="C26" t="s">
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26">
-        <v>2.8668944283850899E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0286689442838509</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
-        <v>2.7899543633968098</v>
+      <c r="C27" t="s">
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27">
-        <v>8.7939863362087797E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.00879398633620878</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
-        <v>3.2456633076582402</v>
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28">
-        <v>3.8975425867126099E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.00389754258671261</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29">
-        <v>2.5133733380302998</v>
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29">
-        <v>1.4406552797030099E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.0144065527970301</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30">
-        <v>1.34306841204204</v>
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30">
-        <v>0.10315220220719799</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.103152202207198</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31">
-        <v>2.38694512992417</v>
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
       </c>
       <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31">
-        <v>1.80278261582782E-2</v>
+        <v>8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0180278261582782</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/results/significance/5 DM test.xlsx
+++ b/results/significance/5 DM test.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t xml:space="preserve">test</t>
   </si>
@@ -83,6 +83,24 @@
     <t xml:space="preserve">2.92664810555373***</t>
   </si>
   <si>
+    <t xml:space="preserve">nochange&lt;ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.87633483596437***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.10992943790672***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.07682862473172***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20779357701016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.44282409354563**</t>
+  </si>
+  <si>
     <t xml:space="preserve">nochange&lt;rf</t>
   </si>
   <si>
@@ -101,22 +119,40 @@
     <t xml:space="preserve">2.3076308557095**</t>
   </si>
   <si>
-    <t xml:space="preserve">arima&lt;ses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.79934697109506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.36214070585464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-4.10312531933753</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.40488987794158*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-3.0969112910549</t>
+    <t xml:space="preserve">ses&lt;arima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.79934697109506***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.36214070585464***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.10312531933753***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.40488987794158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0969112910549***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arima&lt;ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.67897786672323**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.82844303530606***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.86811988954267***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2154750213488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.27813200531344**</t>
   </si>
   <si>
     <t xml:space="preserve">arima&lt;rf</t>
@@ -137,6 +173,24 @@
     <t xml:space="preserve">2.12232896654915**</t>
   </si>
   <si>
+    <t xml:space="preserve">ses&lt;ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.02623424242102***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.27643596632892***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.29119993346892***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.20205708919264</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.52148707044698**</t>
+  </si>
+  <si>
     <t xml:space="preserve">ses&lt;rf</t>
   </si>
   <si>
@@ -153,6 +207,24 @@
   </si>
   <si>
     <t xml:space="preserve">2.38694512992417**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rf&lt;ann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.81751891066782***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.47096475389023**</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.56869559869632*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.038726480302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.25301010999406**</t>
   </si>
 </sst>
 </file>
@@ -685,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0114664752090614</v>
+        <v>0.00753488526106495</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +774,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>0.00529836500709903</v>
+        <v>0.00496335797698336</v>
       </c>
     </row>
     <row r="14">
@@ -719,7 +791,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0195334256471658</v>
+        <v>0.00526537641220045</v>
       </c>
     </row>
     <row r="15">
@@ -736,7 +808,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>0.102077080121979</v>
+        <v>0.126226825610621</v>
       </c>
     </row>
     <row r="16">
@@ -753,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0207356456367869</v>
+        <v>0.0163293875369738</v>
       </c>
     </row>
     <row r="17">
@@ -770,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>0.998526693657597</v>
+        <v>0.0114664752090614</v>
       </c>
     </row>
     <row r="18">
@@ -787,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="n">
-        <v>0.996830091995364</v>
+        <v>0.00529836500709903</v>
       </c>
     </row>
     <row r="19">
@@ -804,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>0.999124958288952</v>
+        <v>0.0195334256471658</v>
       </c>
     </row>
     <row r="20">
@@ -821,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0938295443751098</v>
+        <v>0.102077080121979</v>
       </c>
     </row>
     <row r="21">
@@ -838,7 +910,7 @@
         <v>8</v>
       </c>
       <c r="E21" t="n">
-        <v>0.994920009640155</v>
+        <v>0.0207356456367869</v>
       </c>
     </row>
     <row r="22">
@@ -855,7 +927,7 @@
         <v>8</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0175555677330216</v>
+        <v>0.00147330634240312</v>
       </c>
     </row>
     <row r="23">
@@ -872,7 +944,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0089734272912948</v>
+        <v>0.00316990800463605</v>
       </c>
     </row>
     <row r="24">
@@ -889,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0338921839390877</v>
+        <v>0.000875041711048003</v>
       </c>
     </row>
     <row r="25">
@@ -906,7 +978,7 @@
         <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>0.101800825996489</v>
+        <v>0.90617045562489</v>
       </c>
     </row>
     <row r="26">
@@ -923,7 +995,7 @@
         <v>8</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0286689442838509</v>
+        <v>0.00507999035984486</v>
       </c>
     </row>
     <row r="27">
@@ -940,7 +1012,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00879398633620878</v>
+        <v>0.0107236583240827</v>
       </c>
     </row>
     <row r="28">
@@ -957,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>0.00389754258671261</v>
+        <v>0.00820890976900105</v>
       </c>
     </row>
     <row r="29">
@@ -974,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0144065527970301</v>
+        <v>0.00764643675996002</v>
       </c>
     </row>
     <row r="30">
@@ -991,7 +1063,7 @@
         <v>8</v>
       </c>
       <c r="E30" t="n">
-        <v>0.103152202207198</v>
+        <v>0.124814092739469</v>
       </c>
     </row>
     <row r="31">
@@ -1008,7 +1080,347 @@
         <v>8</v>
       </c>
       <c r="E31" t="n">
+        <v>0.0218396328348259</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0175555677330216</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0089734272912948</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0338921839390877</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.101800825996489</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0286689442838509</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.00576330119724522</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.00369016791358245</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>56</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.00359469854441846</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.127290119950456</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0142001472657121</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.00879398633620878</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.00389754258671261</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0144065527970301</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.103152202207198</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" t="n">
         <v>0.0180278261582782</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.00837090624610816</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0155340943270018</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.072508746371791</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.160612985735771</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0228241665263348</v>
       </c>
     </row>
   </sheetData>
